--- a/TestResults/UomTypeGraphQL.xlsx
+++ b/TestResults/UomTypeGraphQL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="46">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -74,7 +74,7 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 5, below are the test steps for this test case</t>
+    <t>Total number of records matching between DB &amp; Response: 6, below are the test steps for this test case</t>
   </si>
   <si>
     <t xml:space="preserve">Response_uomTypeCd: TestUOMCD1
@@ -110,6 +110,15 @@
 DB_uomTypeNm: Test_UOMName2
 Response_uomTypeDesc: Test_UOM_Desc2
 DB_uomTypeDesc: Test_UOM_Desc2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_uomTypeCd: Test_05
+DB_uomTypeCd: Test_05
+Response_uomTypeNm: TestAuto06
+DB_uomTypeNm: TestAuto06
+Response_uomTypeDesc: TestDesc1
+DB_uomTypeDesc: TestDesc1
 </t>
   </si>
   <si>
@@ -142,13 +151,163 @@
   <si>
     <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
   </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify the UOM_Type record with uomTypeCd parameter with uomTypeNm,uomTypeDesc attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"query": "
+	{
+		    uomTypes (uomTypeCd :\"Test_UOMCD\") 
+		{
+			      uomTypeName      uomTypeDesc    
+		}  
+	}  "
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_uomTypeNm: Test_UOMNM
+DB_uomTypeNm: Test_UOMNM
+Response_uomTypeDesc: Test_UOMDa
+DB_uomTypeDesc: Test_UOMDa
+</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify no results fetched when passing the invalid uomTypeCd parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"query": "
+	{
+		    uomTypes (uomTypeCd :\"Test_NO_CD\") 
+		{
+			      uomTypeCode      uomTypeName      uomTypeDesc    
+		}  
+	}  "
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UomTypeCode: Test_NO_CD
+Input_UomTypeName: null
+Input_UomTypeDesc: null
+</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+		]
+	},
+	"data":
+	{
+		"uomTypes":
+		[
+		]
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the invalid any one of the attribute name</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"timestamp":"2020-02-04T13:39:56.592Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'uomTypeName1' in type 'RefUOMType' is undefined @ 'uomTypes/uomTypeName1'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the multiple(2 attributes) invalid attribute names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"timestamp":"2020-02-04T13:39:58.140Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'uomTypeCode1' in type 'RefUOMType' is undefined @ 'uomTypes/uomTypeCode1'",
+				"path":null
+			},
+			{
+				"timestamp":"2020-02-04T13:39:58.140Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'uomTypeName1' in type 'RefUOMType' is undefined @ 'uomTypes/uomTypeName1'",
+				"path":null
+			},
+			{
+				"timestamp":"2020-02-04T13:39:58.140Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'uomTypeDesc1' in type 'RefUOMType' is undefined @ 'uomTypes/uomTypeDesc1'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="90">
+  <fonts count="156">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -601,6 +760,336 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -669,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -936,6 +1425,204 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1202,14 +1889,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="68">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="69">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" t="s" s="71">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s" s="72">
         <v>14</v>
@@ -1217,31 +1904,33 @@
       <c r="F8" t="s" s="73">
         <v>14</v>
       </c>
-      <c r="G8" s="74"/>
+      <c r="G8" t="s" s="74">
+        <v>14</v>
+      </c>
       <c r="H8" t="s" s="75">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s" s="76">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s" s="77">
         <v>16</v>
       </c>
       <c r="K8" t="s" s="78">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="79">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s" s="80">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="81"/>
       <c r="D9" t="s" s="82">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s" s="83">
         <v>14</v>
@@ -1249,22 +1938,216 @@
       <c r="F9" t="s" s="84">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="85">
-        <v>14</v>
-      </c>
+      <c r="G9" s="85"/>
       <c r="H9" t="s" s="86">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s" s="87">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s" s="88">
         <v>16</v>
       </c>
       <c r="K9" t="s" s="89">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>25</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" t="s" s="93">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>14</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>29</v>
+      </c>
+      <c r="C11" s="103"/>
+      <c r="D11" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>14</v>
+      </c>
+      <c r="G11" s="107"/>
+      <c r="H11" t="s" s="108">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>27</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>29</v>
+      </c>
+      <c r="C12" s="114"/>
+      <c r="D12" t="s" s="115">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>14</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>33</v>
+      </c>
+      <c r="C13" s="125"/>
+      <c r="D13" t="s" s="126">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>36</v>
+      </c>
+      <c r="G13" s="129"/>
+      <c r="H13" t="s" s="130">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>14</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>39</v>
+      </c>
+      <c r="C14" s="136"/>
+      <c r="D14" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>42</v>
+      </c>
+      <c r="K14" s="144"/>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>44</v>
+      </c>
+      <c r="C15" s="147"/>
+      <c r="D15" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>42</v>
+      </c>
+      <c r="K15" s="155"/>
+      <c r="L15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
